--- a/Työaikakirjanpidot/Työaikakirjanpito - Eetu Pihamäki.xlsx
+++ b/Työaikakirjanpidot/Työaikakirjanpito - Eetu Pihamäki.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://haagahelia-my.sharepoint.com/personal/a1602670_myy_haaga-helia_fi/Documents/Monialaprojekti/Työaikakirjanpidot/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Monialaprojekti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_E131B9F0573D3AD06F6D2C525B859F6DB91121C7" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{ED957ED1-6336-4A9A-9A10-307472A98793}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Summasivu" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Eetu Pihamäki'!$A$1:$G$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Summasivu!$A$1:$F$12</definedName>
   </definedNames>
-  <calcPr calcId="179021" iterateDelta="1E-4"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>Projekti/asiakas:</t>
   </si>
@@ -190,11 +189,14 @@
   <si>
     <t>Teron kanssa kokous ja siihen liittyvien asioiden hoito. IdM-järjestelmien vaatimustenmääritysten kirjaamista. 3h tein hallinnollisia tehtäviä, mm. kirjoitin Moodleen kokousmuistion ja esittelyviestin.</t>
   </si>
+  <si>
+    <t>30 min ohjauskokous, 1h pöytäkirjan teko, 2h Projektin tiedostojen siirto OneDrive:stä GitHub:iin sekä OneNote projekti taulukkojen muokkaaminen md-tiedostomuotoon GitHub:ssa. 5 min WordPress blogikirjoitusta.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="d\.m\.yyyy;@"/>
     <numFmt numFmtId="165" formatCode="h:mm;@"/>
@@ -633,27 +635,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A6:B8" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
-  <autoFilter ref="A6:B8" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A6:B8" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
+  <autoFilter ref="A6:B8"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Jäsen" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Työtunnit (h)" dataDxfId="0"/>
+    <tableColumn id="1" name="Jäsen" dataDxfId="1"/>
+    <tableColumn id="2" name="Työtunnit (h)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table3" displayName="Table3" ref="A7:G37" totalsRowShown="0">
-  <autoFilter ref="A7:G37" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A7:G37" totalsRowShown="0">
+  <autoFilter ref="A7:G37"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Pvm"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Aloitusklo (xx:xx)"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Lopetusklo (xx:xx)"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Työaika"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Sprint"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Tehtävä"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Määr Suun Kood Test"/>
+    <tableColumn id="1" name="Pvm"/>
+    <tableColumn id="2" name="Aloitusklo (xx:xx)"/>
+    <tableColumn id="3" name="Lopetusklo (xx:xx)"/>
+    <tableColumn id="4" name="Työaika"/>
+    <tableColumn id="5" name="Sprint"/>
+    <tableColumn id="6" name="Tehtävä"/>
+    <tableColumn id="7" name="Määr Suun Kood Test"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -955,7 +957,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1021,7 +1023,7 @@
       </c>
       <c r="C4" s="7">
         <f>$B$8</f>
-        <v>0.23333333333333345</v>
+        <v>0.96250000000000013</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="9"/>
@@ -1049,7 +1051,7 @@
       </c>
       <c r="B7" s="15">
         <f>'Eetu Pihamäki'!$C$5</f>
-        <v>0.23333333333333345</v>
+        <v>0.96250000000000013</v>
       </c>
       <c r="C7" s="1"/>
     </row>
@@ -1059,7 +1061,7 @@
       </c>
       <c r="B8" s="17">
         <f>SUM(B7:B7)</f>
-        <v>0.23333333333333345</v>
+        <v>0.96250000000000013</v>
       </c>
       <c r="C8" s="1"/>
     </row>
@@ -1089,14 +1091,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1166,7 +1168,7 @@
       </c>
       <c r="C5" s="7">
         <f>SUM(D8:D37)</f>
-        <v>0.23333333333333345</v>
+        <v>0.96250000000000013</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
@@ -1291,22 +1293,26 @@
       </c>
       <c r="G11" s="27"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="24">
         <v>43369</v>
       </c>
       <c r="B12" s="25">
         <v>0.47916666666666669</v>
       </c>
-      <c r="C12" s="25"/>
+      <c r="C12" s="25">
+        <v>0.72916666666666663</v>
+      </c>
       <c r="D12" s="26">
         <f t="shared" si="0"/>
-        <v>-0.47916666666666669</v>
+        <v>0.24999999999999994</v>
       </c>
       <c r="E12" s="28">
         <v>1</v>
       </c>
-      <c r="F12" s="27"/>
+      <c r="F12" s="27" t="s">
+        <v>25</v>
+      </c>
       <c r="G12" s="27"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">

--- a/Työaikakirjanpidot/Työaikakirjanpito - Eetu Pihamäki.xlsx
+++ b/Työaikakirjanpidot/Työaikakirjanpito - Eetu Pihamäki.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Summasivu" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>Projekti/asiakas:</t>
   </si>
@@ -191,6 +191,9 @@
   </si>
   <si>
     <t>30 min ohjauskokous, 1h pöytäkirjan teko, 2h Projektin tiedostojen siirto OneDrive:stä GitHub:iin sekä OneNote projekti taulukkojen muokkaaminen md-tiedostomuotoon GitHub:ssa. 5 min WordPress blogikirjoitusta.</t>
+  </si>
+  <si>
+    <t>6h etsin 9 vertailuvaatimukseen tietoa IdM-järjestelmistä. https://github.com/Eetu95/Open-source-IdM-solution/blob/master/Eetun%20muistiinpanoja/Ty%C3%B6t%20-%2028.9.2018.txt</t>
   </si>
 </sst>
 </file>
@@ -1023,7 +1026,7 @@
       </c>
       <c r="C4" s="7">
         <f>$B$8</f>
-        <v>0.96250000000000013</v>
+        <v>1.2194444444444446</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="9"/>
@@ -1051,7 +1054,7 @@
       </c>
       <c r="B7" s="15">
         <f>'Eetu Pihamäki'!$C$5</f>
-        <v>0.96250000000000013</v>
+        <v>1.2194444444444446</v>
       </c>
       <c r="C7" s="1"/>
     </row>
@@ -1061,7 +1064,7 @@
       </c>
       <c r="B8" s="17">
         <f>SUM(B7:B7)</f>
-        <v>0.96250000000000013</v>
+        <v>1.2194444444444446</v>
       </c>
       <c r="C8" s="1"/>
     </row>
@@ -1168,7 +1171,7 @@
       </c>
       <c r="C5" s="7">
         <f>SUM(D8:D37)</f>
-        <v>0.96250000000000013</v>
+        <v>1.2194444444444446</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
@@ -1315,16 +1318,26 @@
       </c>
       <c r="G12" s="27"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
+    <row r="13" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="24">
+        <v>43371</v>
+      </c>
+      <c r="B13" s="25">
+        <v>0.375</v>
+      </c>
+      <c r="C13" s="25">
+        <v>0.63194444444444442</v>
+      </c>
       <c r="D13" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E13" s="28"/>
-      <c r="F13" s="27"/>
+        <v>0.25694444444444442</v>
+      </c>
+      <c r="E13" s="28">
+        <v>1</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>26</v>
+      </c>
       <c r="G13" s="27"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">

--- a/Työaikakirjanpidot/Työaikakirjanpito - Eetu Pihamäki.xlsx
+++ b/Työaikakirjanpidot/Työaikakirjanpito - Eetu Pihamäki.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>Projekti/asiakas:</t>
   </si>
@@ -194,6 +194,9 @@
   </si>
   <si>
     <t>6h etsin 9 vertailuvaatimukseen tietoa IdM-järjestelmistä. https://github.com/Eetu95/Open-source-IdM-solution/blob/master/Eetun%20muistiinpanoja/Ty%C3%B6t%20-%2028.9.2018.txt</t>
+  </si>
+  <si>
+    <t>1h 10 min etsin tiedot 10 järjestelmään, vaatimukseen: "Tunnusten jäädytys ja poisto". 30 min järjestelmän valintaa -&gt; löytyy GitHubista "Vertailutaulukko.xlsx. 5 min esityslistan teko -&gt; lähetetty osallistujille. 5 min työaikakirjanpidon päivitys moodleen. https://github.com/Eetu95/Open-source-IdM-solution/blob/master/Eetun%20muistiinpanoja/Ty%C3%B6t%20-%2028.9.2018%2C%201.10.2018.txt</t>
   </si>
 </sst>
 </file>
@@ -1026,7 +1029,7 @@
       </c>
       <c r="C4" s="7">
         <f>$B$8</f>
-        <v>1.2194444444444446</v>
+        <v>1.2965277777777779</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="9"/>
@@ -1054,7 +1057,7 @@
       </c>
       <c r="B7" s="15">
         <f>'Eetu Pihamäki'!$C$5</f>
-        <v>1.2194444444444446</v>
+        <v>1.2965277777777779</v>
       </c>
       <c r="C7" s="1"/>
     </row>
@@ -1064,7 +1067,7 @@
       </c>
       <c r="B8" s="17">
         <f>SUM(B7:B7)</f>
-        <v>1.2194444444444446</v>
+        <v>1.2965277777777779</v>
       </c>
       <c r="C8" s="1"/>
     </row>
@@ -1101,7 +1104,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1171,7 +1174,7 @@
       </c>
       <c r="C5" s="7">
         <f>SUM(D8:D37)</f>
-        <v>1.2194444444444446</v>
+        <v>1.2965277777777779</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
@@ -1340,16 +1343,26 @@
       </c>
       <c r="G13" s="27"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
+    <row r="14" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A14" s="24">
+        <v>43374</v>
+      </c>
+      <c r="B14" s="25">
+        <v>0.72152777777777777</v>
+      </c>
+      <c r="C14" s="25">
+        <v>0.79861111111111116</v>
+      </c>
       <c r="D14" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E14" s="28"/>
-      <c r="F14" s="27"/>
+        <v>7.7083333333333393E-2</v>
+      </c>
+      <c r="E14" s="28">
+        <v>1</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>27</v>
+      </c>
       <c r="G14" s="27"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">

--- a/Työaikakirjanpidot/Työaikakirjanpito - Eetu Pihamäki.xlsx
+++ b/Työaikakirjanpidot/Työaikakirjanpito - Eetu Pihamäki.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>Projekti/asiakas:</t>
   </si>
@@ -197,6 +197,9 @@
   </si>
   <si>
     <t>1h 10 min etsin tiedot 10 järjestelmään, vaatimukseen: "Tunnusten jäädytys ja poisto". 30 min järjestelmän valintaa -&gt; löytyy GitHubista "Vertailutaulukko.xlsx. 5 min esityslistan teko -&gt; lähetetty osallistujille. 5 min työaikakirjanpidon päivitys moodleen. https://github.com/Eetu95/Open-source-IdM-solution/blob/master/Eetun%20muistiinpanoja/Ty%C3%B6t%20-%2028.9.2018%2C%201.10.2018.txt</t>
+  </si>
+  <si>
+    <t>40 min ohjauskokousta -&gt; tehty pöytäkirja lötyy GitHub - Kokouket - Pöytäkirja - 3.10.2018.docx. noin 1h tarkensin vertailemimme järjestelmien lisenssitietoja, lisäsin mm. puuttuvat versio numerot ja sen mitkä lisenssit ovat FSF:n tai OSI:n hyväksymiä ja listaamia. 5 lisenssiä, joista 1 epäselvä (puolankielinen dokumentointi) --&gt; GitHub - Eetun muistiinpanot - Työt- 3.10.2018.txt. noin 2h kirjoitin blogia ja etsin tietoa IdM-järjestelmistä vertailukriteerien mukaan projektisivuillemme.</t>
   </si>
 </sst>
 </file>
@@ -1029,7 +1032,7 @@
       </c>
       <c r="C4" s="7">
         <f>$B$8</f>
-        <v>1.2965277777777779</v>
+        <v>1.4875000000000003</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="9"/>
@@ -1057,7 +1060,7 @@
       </c>
       <c r="B7" s="15">
         <f>'Eetu Pihamäki'!$C$5</f>
-        <v>1.2965277777777779</v>
+        <v>1.4875000000000003</v>
       </c>
       <c r="C7" s="1"/>
     </row>
@@ -1067,7 +1070,7 @@
       </c>
       <c r="B8" s="17">
         <f>SUM(B7:B7)</f>
-        <v>1.2965277777777779</v>
+        <v>1.4875000000000003</v>
       </c>
       <c r="C8" s="1"/>
     </row>
@@ -1103,8 +1106,8 @@
   </sheetPr>
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1174,7 +1177,7 @@
       </c>
       <c r="C5" s="7">
         <f>SUM(D8:D37)</f>
-        <v>1.2965277777777779</v>
+        <v>1.4875000000000003</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
@@ -1365,16 +1368,26 @@
       </c>
       <c r="G14" s="27"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="24"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
+    <row r="15" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A15" s="24">
+        <v>43376</v>
+      </c>
+      <c r="B15" s="25">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="C15" s="25">
+        <v>0.71875</v>
+      </c>
       <c r="D15" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E15" s="28"/>
-      <c r="F15" s="27"/>
+        <v>0.19097222222222221</v>
+      </c>
+      <c r="E15" s="28">
+        <v>2</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>28</v>
+      </c>
       <c r="G15" s="27"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">

--- a/Työaikakirjanpidot/Työaikakirjanpito - Eetu Pihamäki.xlsx
+++ b/Työaikakirjanpidot/Työaikakirjanpito - Eetu Pihamäki.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Monialaprojekti\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{412686A2-2526-4DEE-AF39-3B4CB28629A0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9345" windowHeight="7980" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summasivu" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Eetu Pihamäki'!$A$1:$G$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Summasivu!$A$1:$F$12</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="179021" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>Projekti/asiakas:</t>
   </si>
@@ -201,11 +202,14 @@
   <si>
     <t>40 min ohjauskokousta -&gt; tehty pöytäkirja lötyy GitHub - Kokouket - Pöytäkirja - 3.10.2018.docx. noin 1h tarkensin vertailemimme järjestelmien lisenssitietoja, lisäsin mm. puuttuvat versio numerot ja sen mitkä lisenssit ovat FSF:n tai OSI:n hyväksymiä ja listaamia. 5 lisenssiä, joista 1 epäselvä (puolankielinen dokumentointi) --&gt; GitHub - Eetun muistiinpanot - Työt- 3.10.2018.txt. noin 2h kirjoitin blogia ja etsin tietoa IdM-järjestelmistä vertailukriteerien mukaan projektisivuillemme.</t>
   </si>
+  <si>
+    <t>1h Blogi kirjoittelua Ubuntu 16.04 -asennuksesta -&gt; Master-palvelimen asennus.  3h midPoint asennuksen kokeilua. -&gt; https://wiki.evolveum.com/display/midPoint/MidPoint+Easy+Install. https://wiki.evolveum.com/display/midPoint/midPoint+on+Ubuntu,+Tomcat,+PostgreSQL+HOWTO https://github.com/Eetu95/Open-source-IdM-solution/blob/master/Eetun%20muistiinpanoja/Ty%C3%B6t%20-%205.10.2018.txt</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="d\.m\.yyyy;@"/>
     <numFmt numFmtId="165" formatCode="h:mm;@"/>
@@ -644,27 +648,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A6:B8" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
-  <autoFilter ref="A6:B8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A6:B8" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
+  <autoFilter ref="A6:B8" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Jäsen" dataDxfId="1"/>
-    <tableColumn id="2" name="Työtunnit (h)" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Jäsen" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Työtunnit (h)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A7:G37" totalsRowShown="0">
-  <autoFilter ref="A7:G37"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table3" displayName="Table3" ref="A7:G37" totalsRowShown="0">
+  <autoFilter ref="A7:G37" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Pvm"/>
-    <tableColumn id="2" name="Aloitusklo (xx:xx)"/>
-    <tableColumn id="3" name="Lopetusklo (xx:xx)"/>
-    <tableColumn id="4" name="Työaika"/>
-    <tableColumn id="5" name="Sprint"/>
-    <tableColumn id="6" name="Tehtävä"/>
-    <tableColumn id="7" name="Määr Suun Kood Test"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Pvm"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Aloitusklo (xx:xx)"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Lopetusklo (xx:xx)"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Työaika"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Sprint"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Tehtävä"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Määr Suun Kood Test"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -966,7 +970,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1032,7 +1036,7 @@
       </c>
       <c r="C4" s="7">
         <f>$B$8</f>
-        <v>1.4875000000000003</v>
+        <v>1.7131944444444447</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="9"/>
@@ -1060,7 +1064,7 @@
       </c>
       <c r="B7" s="15">
         <f>'Eetu Pihamäki'!$C$5</f>
-        <v>1.4875000000000003</v>
+        <v>1.7131944444444447</v>
       </c>
       <c r="C7" s="1"/>
     </row>
@@ -1070,7 +1074,7 @@
       </c>
       <c r="B8" s="17">
         <f>SUM(B7:B7)</f>
-        <v>1.4875000000000003</v>
+        <v>1.7131944444444447</v>
       </c>
       <c r="C8" s="1"/>
     </row>
@@ -1100,14 +1104,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1177,7 +1181,7 @@
       </c>
       <c r="C5" s="7">
         <f>SUM(D8:D37)</f>
-        <v>1.4875000000000003</v>
+        <v>1.7131944444444447</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
@@ -1390,16 +1394,26 @@
       </c>
       <c r="G15" s="27"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
+    <row r="16" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A16" s="24">
+        <v>43378</v>
+      </c>
+      <c r="B16" s="25">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="C16" s="25">
+        <v>0.61111111111111105</v>
+      </c>
       <c r="D16" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E16" s="28"/>
-      <c r="F16" s="27"/>
+        <v>0.22569444444444436</v>
+      </c>
+      <c r="E16" s="28">
+        <v>2</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>29</v>
+      </c>
       <c r="G16" s="27"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">

--- a/Työaikakirjanpidot/Työaikakirjanpito - Eetu Pihamäki.xlsx
+++ b/Työaikakirjanpidot/Työaikakirjanpito - Eetu Pihamäki.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Monialaprojekti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{412686A2-2526-4DEE-AF39-3B4CB28629A0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8C47F5F-0C85-47B5-B72F-A8D68118BD9D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="9345" windowHeight="7980" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>Projekti/asiakas:</t>
   </si>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t>1h Blogi kirjoittelua Ubuntu 16.04 -asennuksesta -&gt; Master-palvelimen asennus.  3h midPoint asennuksen kokeilua. -&gt; https://wiki.evolveum.com/display/midPoint/MidPoint+Easy+Install. https://wiki.evolveum.com/display/midPoint/midPoint+on+Ubuntu,+Tomcat,+PostgreSQL+HOWTO https://github.com/Eetu95/Open-source-IdM-solution/blob/master/Eetun%20muistiinpanoja/Ty%C3%B6t%20-%205.10.2018.txt</t>
+  </si>
+  <si>
+    <t>1 h JCE-tiedoston asennusta ja etsimistä, 10 min esityslistan tekoa ja työaikakirjanpidon raportointia -&gt; löytyvät moodlesta sekä kokouksen osanottajien sähköposteista. 50 min Windows 10 VM:n asennusta ja konffailua. https://github.com/Eetu95/Open-source-IdM-solution/blob/master/Eetun%20muistiinpanoja/Ty%C3%B6t%20-%208.10.2018.txt</t>
   </si>
 </sst>
 </file>
@@ -1036,7 +1039,7 @@
       </c>
       <c r="C4" s="7">
         <f>$B$8</f>
-        <v>1.7131944444444447</v>
+        <v>1.7965277777777779</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="9"/>
@@ -1064,7 +1067,7 @@
       </c>
       <c r="B7" s="15">
         <f>'Eetu Pihamäki'!$C$5</f>
-        <v>1.7131944444444447</v>
+        <v>1.7965277777777779</v>
       </c>
       <c r="C7" s="1"/>
     </row>
@@ -1074,7 +1077,7 @@
       </c>
       <c r="B8" s="17">
         <f>SUM(B7:B7)</f>
-        <v>1.7131944444444447</v>
+        <v>1.7965277777777779</v>
       </c>
       <c r="C8" s="1"/>
     </row>
@@ -1110,8 +1113,8 @@
   </sheetPr>
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1181,7 +1184,7 @@
       </c>
       <c r="C5" s="7">
         <f>SUM(D8:D37)</f>
-        <v>1.7131944444444447</v>
+        <v>1.7965277777777779</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
@@ -1416,16 +1419,26 @@
       </c>
       <c r="G16" s="27"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
+    <row r="17" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A17" s="24">
+        <v>43381</v>
+      </c>
+      <c r="B17" s="25">
+        <v>0.71875</v>
+      </c>
+      <c r="C17" s="25">
+        <v>0.80208333333333337</v>
+      </c>
       <c r="D17" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E17" s="28"/>
-      <c r="F17" s="27"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="E17" s="28">
+        <v>2</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="G17" s="27"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">

--- a/Työaikakirjanpidot/Työaikakirjanpito - Eetu Pihamäki.xlsx
+++ b/Työaikakirjanpidot/Työaikakirjanpito - Eetu Pihamäki.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Monialaprojekti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8C47F5F-0C85-47B5-B72F-A8D68118BD9D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{549D97A9-EF0D-463A-A7F9-28A0CBEF1663}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="9345" windowHeight="7980" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t>Projekti/asiakas:</t>
   </si>
@@ -207,6 +207,9 @@
   </si>
   <si>
     <t>1 h JCE-tiedoston asennusta ja etsimistä, 10 min esityslistan tekoa ja työaikakirjanpidon raportointia -&gt; löytyvät moodlesta sekä kokouksen osanottajien sähköposteista. 50 min Windows 10 VM:n asennusta ja konffailua. https://github.com/Eetu95/Open-source-IdM-solution/blob/master/Eetun%20muistiinpanoja/Ty%C3%B6t%20-%208.10.2018.txt</t>
+  </si>
+  <si>
+    <t>6 h PostgreSQL-serverin kanssa säheltämistä. https://github.com/Eetu95/Open-source-IdM-solution/blob/master/Eetun%20muistiinpanoja/Ty%C3%B6t%20-%2010.10.2018.txt. 13 min ohjauskokous.</t>
   </si>
 </sst>
 </file>
@@ -1039,7 +1042,7 @@
       </c>
       <c r="C4" s="7">
         <f>$B$8</f>
-        <v>1.7965277777777779</v>
+        <v>2.0986111111111114</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="9"/>
@@ -1067,7 +1070,7 @@
       </c>
       <c r="B7" s="15">
         <f>'Eetu Pihamäki'!$C$5</f>
-        <v>1.7965277777777779</v>
+        <v>2.0986111111111114</v>
       </c>
       <c r="C7" s="1"/>
     </row>
@@ -1077,7 +1080,7 @@
       </c>
       <c r="B8" s="17">
         <f>SUM(B7:B7)</f>
-        <v>1.7965277777777779</v>
+        <v>2.0986111111111114</v>
       </c>
       <c r="C8" s="1"/>
     </row>
@@ -1114,7 +1117,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1184,7 +1187,7 @@
       </c>
       <c r="C5" s="7">
         <f>SUM(D8:D37)</f>
-        <v>1.7965277777777779</v>
+        <v>2.0986111111111114</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
@@ -1441,16 +1444,26 @@
       </c>
       <c r="G17" s="27"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
+    <row r="18" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="24">
+        <v>43383</v>
+      </c>
+      <c r="B18" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="C18" s="25">
+        <v>0.80208333333333337</v>
+      </c>
       <c r="D18" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E18" s="28"/>
-      <c r="F18" s="27"/>
+        <v>0.30208333333333337</v>
+      </c>
+      <c r="E18" s="28">
+        <v>2</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>31</v>
+      </c>
       <c r="G18" s="27"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">

--- a/Työaikakirjanpidot/Työaikakirjanpito - Eetu Pihamäki.xlsx
+++ b/Työaikakirjanpidot/Työaikakirjanpito - Eetu Pihamäki.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Monialaprojekti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{549D97A9-EF0D-463A-A7F9-28A0CBEF1663}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9ADAEBBF-FC7E-4B7C-A0B0-3FC3AAC75B96}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="9345" windowHeight="7980" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>Projekti/asiakas:</t>
   </si>
@@ -211,6 +211,9 @@
   <si>
     <t>6 h PostgreSQL-serverin kanssa säheltämistä. https://github.com/Eetu95/Open-source-IdM-solution/blob/master/Eetun%20muistiinpanoja/Ty%C3%B6t%20-%2010.10.2018.txt. 13 min ohjauskokous.</t>
   </si>
+  <si>
+    <t>1h PostgreSQL toimimaan samassa palvelimessa midPointin kanssa. 2h Ubuntu ja windows työpöytien asentaminen ja päivittäminen Virtual Boxiin. 3h midPointin testailua. https://github.com/Eetu95/Open-source-IdM-solution/blob/master/Eetun%20muistiinpanoja/Ty%C3%B6t%20-%2012.10.2018.txt</t>
+  </si>
 </sst>
 </file>
 
@@ -393,7 +396,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -478,6 +481,9 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1042,7 +1048,7 @@
       </c>
       <c r="C4" s="7">
         <f>$B$8</f>
-        <v>2.0986111111111114</v>
+        <v>2.3694444444444449</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="9"/>
@@ -1070,7 +1076,7 @@
       </c>
       <c r="B7" s="15">
         <f>'Eetu Pihamäki'!$C$5</f>
-        <v>2.0986111111111114</v>
+        <v>2.3694444444444449</v>
       </c>
       <c r="C7" s="1"/>
     </row>
@@ -1080,7 +1086,7 @@
       </c>
       <c r="B8" s="17">
         <f>SUM(B7:B7)</f>
-        <v>2.0986111111111114</v>
+        <v>2.3694444444444449</v>
       </c>
       <c r="C8" s="1"/>
     </row>
@@ -1117,7 +1123,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1187,7 +1193,7 @@
       </c>
       <c r="C5" s="7">
         <f>SUM(D8:D37)</f>
-        <v>2.0986111111111114</v>
+        <v>2.3694444444444449</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
@@ -1466,16 +1472,26 @@
       </c>
       <c r="G18" s="27"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="24"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
+    <row r="19" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A19" s="24">
+        <v>43385</v>
+      </c>
+      <c r="B19" s="25">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C19" s="25">
+        <v>0.60416666666666663</v>
+      </c>
       <c r="D19" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E19" s="28"/>
-      <c r="F19" s="27"/>
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="E19" s="28">
+        <v>2</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>32</v>
+      </c>
       <c r="G19" s="27"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">

--- a/Työaikakirjanpidot/Työaikakirjanpito - Eetu Pihamäki.xlsx
+++ b/Työaikakirjanpidot/Työaikakirjanpito - Eetu Pihamäki.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Monialaprojekti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9ADAEBBF-FC7E-4B7C-A0B0-3FC3AAC75B96}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6463BE1C-BBA3-4CDA-8AA5-10C3BEDC8761}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="9345" windowHeight="7980" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>Projekti/asiakas:</t>
   </si>
@@ -214,6 +214,9 @@
   <si>
     <t>1h PostgreSQL toimimaan samassa palvelimessa midPointin kanssa. 2h Ubuntu ja windows työpöytien asentaminen ja päivittäminen Virtual Boxiin. 3h midPointin testailua. https://github.com/Eetu95/Open-source-IdM-solution/blob/master/Eetun%20muistiinpanoja/Ty%C3%B6t%20-%2012.10.2018.txt</t>
   </si>
+  <si>
+    <t>5 min esityslistan teko ja lähetys. 1h 20 min AD Windows Server 2016  pavelimen asennusta ja konfigurointia VirtualBox ympäristössä. 30 min valmistautumista HTTPS-yhteyden konfigurointiin midPoint IdM-palvelimeen (SSL, encryption keys, Java JCE Keystore jne.) https://github.com/Eetu95/Open-source-IdM-solution/blob/master/Eetun%20muistiinpanoja/Ty%C3%B6t%20-%2022.10.2018.txt</t>
+  </si>
 </sst>
 </file>
 
@@ -476,14 +479,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1010,11 +1013,11 @@
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
       <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1022,11 +1025,11 @@
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1034,11 +1037,11 @@
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1048,7 +1051,7 @@
       </c>
       <c r="C4" s="7">
         <f>$B$8</f>
-        <v>2.3694444444444449</v>
+        <v>2.4562500000000003</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="9"/>
@@ -1076,7 +1079,7 @@
       </c>
       <c r="B7" s="15">
         <f>'Eetu Pihamäki'!$C$5</f>
-        <v>2.3694444444444449</v>
+        <v>2.4562500000000003</v>
       </c>
       <c r="C7" s="1"/>
     </row>
@@ -1086,7 +1089,7 @@
       </c>
       <c r="B8" s="17">
         <f>SUM(B7:B7)</f>
-        <v>2.3694444444444449</v>
+        <v>2.4562500000000003</v>
       </c>
       <c r="C8" s="1"/>
     </row>
@@ -1122,8 +1125,8 @@
   </sheetPr>
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1143,11 +1146,11 @@
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1155,11 +1158,11 @@
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1167,11 +1170,11 @@
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1179,11 +1182,11 @@
       <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1193,7 +1196,7 @@
       </c>
       <c r="C5" s="7">
         <f>SUM(D8:D37)</f>
-        <v>2.3694444444444449</v>
+        <v>2.4562500000000003</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
@@ -1489,21 +1492,31 @@
       <c r="E19" s="28">
         <v>2</v>
       </c>
-      <c r="F19" s="31" t="s">
+      <c r="F19" s="29" t="s">
         <v>32</v>
       </c>
       <c r="G19" s="27"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
+    <row r="20" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A20" s="24">
+        <v>43395</v>
+      </c>
+      <c r="B20" s="25">
+        <v>0.71875</v>
+      </c>
+      <c r="C20" s="25">
+        <v>0.80555555555555547</v>
+      </c>
       <c r="D20" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E20" s="28"/>
-      <c r="F20" s="27"/>
+        <v>8.6805555555555469E-2</v>
+      </c>
+      <c r="E20" s="28">
+        <v>3</v>
+      </c>
+      <c r="F20" s="27" t="s">
+        <v>33</v>
+      </c>
       <c r="G20" s="27"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">

--- a/Työaikakirjanpidot/Työaikakirjanpito - Eetu Pihamäki.xlsx
+++ b/Työaikakirjanpidot/Työaikakirjanpito - Eetu Pihamäki.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Monialaprojekti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6463BE1C-BBA3-4CDA-8AA5-10C3BEDC8761}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A32A8296-2B3C-403D-967B-5DC5A382E074}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9345" windowHeight="7980" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="9075" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summasivu" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <t>Projekti/asiakas:</t>
   </si>
@@ -216,6 +216,9 @@
   </si>
   <si>
     <t>5 min esityslistan teko ja lähetys. 1h 20 min AD Windows Server 2016  pavelimen asennusta ja konfigurointia VirtualBox ympäristössä. 30 min valmistautumista HTTPS-yhteyden konfigurointiin midPoint IdM-palvelimeen (SSL, encryption keys, Java JCE Keystore jne.) https://github.com/Eetu95/Open-source-IdM-solution/blob/master/Eetun%20muistiinpanoja/Ty%C3%B6t%20-%2022.10.2018.txt</t>
+  </si>
+  <si>
+    <t>30 min ohjauskokousta. 6 h Unix-connectorin asennusta ja konfigurointia. 1h Windowsin 10 liittämistä Windows Server 2016 AD:seen, sekä Markuksen auttamista AD:n kanssa jne. https://github.com/Eetu95/Open-source-IdM-solution/blob/master/Eetun%20muistiinpanoja/Ty%C3%B6t%20-%2024.10.2018.txt</t>
   </si>
 </sst>
 </file>
@@ -1051,7 +1054,7 @@
       </c>
       <c r="C4" s="7">
         <f>$B$8</f>
-        <v>2.4562500000000003</v>
+        <v>2.7826388888888891</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="9"/>
@@ -1079,7 +1082,7 @@
       </c>
       <c r="B7" s="15">
         <f>'Eetu Pihamäki'!$C$5</f>
-        <v>2.4562500000000003</v>
+        <v>2.7826388888888891</v>
       </c>
       <c r="C7" s="1"/>
     </row>
@@ -1089,7 +1092,7 @@
       </c>
       <c r="B8" s="17">
         <f>SUM(B7:B7)</f>
-        <v>2.4562500000000003</v>
+        <v>2.7826388888888891</v>
       </c>
       <c r="C8" s="1"/>
     </row>
@@ -1126,7 +1129,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1196,7 +1199,7 @@
       </c>
       <c r="C5" s="7">
         <f>SUM(D8:D37)</f>
-        <v>2.4562500000000003</v>
+        <v>2.7826388888888891</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
@@ -1519,16 +1522,26 @@
       </c>
       <c r="G20" s="27"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="24"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
+    <row r="21" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A21" s="24">
+        <v>43397</v>
+      </c>
+      <c r="B21" s="25">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="C21" s="25">
+        <v>0.8125</v>
+      </c>
       <c r="D21" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E21" s="28"/>
-      <c r="F21" s="27"/>
+        <v>0.3263888888888889</v>
+      </c>
+      <c r="E21" s="28">
+        <v>3</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>34</v>
+      </c>
       <c r="G21" s="27"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">

--- a/Työaikakirjanpidot/Työaikakirjanpito - Eetu Pihamäki.xlsx
+++ b/Työaikakirjanpidot/Työaikakirjanpito - Eetu Pihamäki.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Monialaprojekti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A32A8296-2B3C-403D-967B-5DC5A382E074}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E76A802E-7158-4E22-81CF-17D3FA68197D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="9075" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6120" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summasivu" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
   <si>
     <t>Projekti/asiakas:</t>
   </si>
@@ -219,6 +219,9 @@
   </si>
   <si>
     <t>30 min ohjauskokousta. 6 h Unix-connectorin asennusta ja konfigurointia. 1h Windowsin 10 liittämistä Windows Server 2016 AD:seen, sekä Markuksen auttamista AD:n kanssa jne. https://github.com/Eetu95/Open-source-IdM-solution/blob/master/Eetun%20muistiinpanoja/Ty%C3%B6t%20-%2024.10.2018.txt</t>
+  </si>
+  <si>
+    <t>6 h 30 min jatkoin Unix-connectorin konfigurointia ja testausta. MidPointin roolien jakoa, resurssien hallinnan testausta jne. https://github.com/Eetu95/Open-source-IdM-solution/blob/master/Eetun%20muistiinpanoja/Ty%C3%B6t%20-%2026.10.2018.txt</t>
   </si>
 </sst>
 </file>
@@ -1054,7 +1057,7 @@
       </c>
       <c r="C4" s="7">
         <f>$B$8</f>
-        <v>2.7826388888888891</v>
+        <v>3.0812500000000003</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="9"/>
@@ -1082,7 +1085,7 @@
       </c>
       <c r="B7" s="15">
         <f>'Eetu Pihamäki'!$C$5</f>
-        <v>2.7826388888888891</v>
+        <v>3.0812500000000003</v>
       </c>
       <c r="C7" s="1"/>
     </row>
@@ -1092,7 +1095,7 @@
       </c>
       <c r="B8" s="17">
         <f>SUM(B7:B7)</f>
-        <v>2.7826388888888891</v>
+        <v>3.0812500000000003</v>
       </c>
       <c r="C8" s="1"/>
     </row>
@@ -1128,8 +1131,8 @@
   </sheetPr>
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1199,7 +1202,7 @@
       </c>
       <c r="C5" s="7">
         <f>SUM(D8:D37)</f>
-        <v>2.7826388888888891</v>
+        <v>3.0812500000000003</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
@@ -1544,16 +1547,26 @@
       </c>
       <c r="G21" s="27"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
+    <row r="22" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A22" s="24">
+        <v>43399</v>
+      </c>
+      <c r="B22" s="25">
+        <v>0.375</v>
+      </c>
+      <c r="C22" s="25">
+        <v>0.67361111111111116</v>
+      </c>
       <c r="D22" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E22" s="28"/>
-      <c r="F22" s="27"/>
+        <v>0.29861111111111116</v>
+      </c>
+      <c r="E22" s="28">
+        <v>3</v>
+      </c>
+      <c r="F22" s="29" t="s">
+        <v>35</v>
+      </c>
       <c r="G22" s="27"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">

--- a/Työaikakirjanpidot/Työaikakirjanpito - Eetu Pihamäki.xlsx
+++ b/Työaikakirjanpidot/Työaikakirjanpito - Eetu Pihamäki.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Monialaprojekti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E76A802E-7158-4E22-81CF-17D3FA68197D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA4D08AC-33FC-4016-8D81-DD656112C96F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6120" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="9945" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summasivu" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>Projekti/asiakas:</t>
   </si>
@@ -222,6 +222,9 @@
   </si>
   <si>
     <t>6 h 30 min jatkoin Unix-connectorin konfigurointia ja testausta. MidPointin roolien jakoa, resurssien hallinnan testausta jne. https://github.com/Eetu95/Open-source-IdM-solution/blob/master/Eetun%20muistiinpanoja/Ty%C3%B6t%20-%2026.10.2018.txt</t>
+  </si>
+  <si>
+    <t>1 h Projektipäällikön hallinnollisia tehtäviä (Pöytäkirja,  tuntikirjanpito jne.) 50 min Windows Server 2016 aktivointiavain toimimaan --&gt; Microsoft Supportille soitto ja chat.  https://github.com/Eetu95/Open-source-IdM-solution/blob/master/Eetun%20muistiinpanoja/Ty%C3%B6t%20-%2029.10.2018.txt</t>
   </si>
 </sst>
 </file>
@@ -1057,7 +1060,7 @@
       </c>
       <c r="C4" s="7">
         <f>$B$8</f>
-        <v>3.0812500000000003</v>
+        <v>3.1680555555555556</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="9"/>
@@ -1085,7 +1088,7 @@
       </c>
       <c r="B7" s="15">
         <f>'Eetu Pihamäki'!$C$5</f>
-        <v>3.0812500000000003</v>
+        <v>3.1680555555555556</v>
       </c>
       <c r="C7" s="1"/>
     </row>
@@ -1095,7 +1098,7 @@
       </c>
       <c r="B8" s="17">
         <f>SUM(B7:B7)</f>
-        <v>3.0812500000000003</v>
+        <v>3.1680555555555556</v>
       </c>
       <c r="C8" s="1"/>
     </row>
@@ -1131,7 +1134,7 @@
   </sheetPr>
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
@@ -1202,7 +1205,7 @@
       </c>
       <c r="C5" s="7">
         <f>SUM(D8:D37)</f>
-        <v>3.0812500000000003</v>
+        <v>3.1680555555555556</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
@@ -1569,16 +1572,26 @@
       </c>
       <c r="G22" s="27"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="24"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
+    <row r="23" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A23" s="24">
+        <v>43402</v>
+      </c>
+      <c r="B23" s="25">
+        <v>0.71875</v>
+      </c>
+      <c r="C23" s="25">
+        <v>0.80555555555555547</v>
+      </c>
       <c r="D23" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E23" s="28"/>
-      <c r="F23" s="27"/>
+        <v>8.6805555555555469E-2</v>
+      </c>
+      <c r="E23" s="28">
+        <v>3</v>
+      </c>
+      <c r="F23" s="27" t="s">
+        <v>36</v>
+      </c>
       <c r="G23" s="27"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">

--- a/Työaikakirjanpidot/Työaikakirjanpito - Eetu Pihamäki.xlsx
+++ b/Työaikakirjanpidot/Työaikakirjanpito - Eetu Pihamäki.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Monialaprojekti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA4D08AC-33FC-4016-8D81-DD656112C96F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{397EFE79-00E8-486F-AA06-F4308DBDBB85}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="9945" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t>Projekti/asiakas:</t>
   </si>
@@ -225,6 +225,9 @@
   </si>
   <si>
     <t>1 h Projektipäällikön hallinnollisia tehtäviä (Pöytäkirja,  tuntikirjanpito jne.) 50 min Windows Server 2016 aktivointiavain toimimaan --&gt; Microsoft Supportille soitto ja chat.  https://github.com/Eetu95/Open-source-IdM-solution/blob/master/Eetun%20muistiinpanoja/Ty%C3%B6t%20-%2029.10.2018.txt</t>
+  </si>
+  <si>
+    <t>4 h midPointin ja testipalvelimen liittämistä niin että midPointista saadaan lisättyä käyttäjiä palvelimeen oikeilla asetuksilla (mm. admin käyttäjät saavat sudo oikeudet ja normaalikäyttäjät eivät pysty mm. muuttamaan asetustiedostoja jne.) Testattiin liittää useita erilaisia käyttäjiä palvelimeen midPointin kautta sekä ryhmä ja rooli jakoa käyttäjille. 1h 30 min Otin selvää midPointin lokeista /var/log/authlog, /var/log/syslog --&gt; ei löytynyt mm. käyttäjien lisäämis tietoja ja ajankohtia. Katsoin myös midPoint GUI:sta lokeja jos löytyisi kiinnostavampaa loki tietoa, oli hieman epäselvää joten katsoin midPointin omasta dokumentaatiosta apua lokien selaamiseen --&gt; https://wiki.evolveum.com/display/midPoint/Log+Viewer</t>
   </si>
 </sst>
 </file>
@@ -1060,7 +1063,7 @@
       </c>
       <c r="C4" s="7">
         <f>$B$8</f>
-        <v>3.1680555555555556</v>
+        <v>3.4895833333333335</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="9"/>
@@ -1088,7 +1091,7 @@
       </c>
       <c r="B7" s="15">
         <f>'Eetu Pihamäki'!$C$5</f>
-        <v>3.1680555555555556</v>
+        <v>3.4895833333333335</v>
       </c>
       <c r="C7" s="1"/>
     </row>
@@ -1098,7 +1101,7 @@
       </c>
       <c r="B8" s="17">
         <f>SUM(B7:B7)</f>
-        <v>3.1680555555555556</v>
+        <v>3.4895833333333335</v>
       </c>
       <c r="C8" s="1"/>
     </row>
@@ -1134,8 +1137,8 @@
   </sheetPr>
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1205,7 +1208,7 @@
       </c>
       <c r="C5" s="7">
         <f>SUM(D8:D37)</f>
-        <v>3.1680555555555556</v>
+        <v>3.4895833333333335</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
@@ -1594,16 +1597,26 @@
       </c>
       <c r="G23" s="27"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="24"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
+    <row r="24" spans="1:7" ht="195" x14ac:dyDescent="0.25">
+      <c r="A24" s="24">
+        <v>43404</v>
+      </c>
+      <c r="B24" s="25">
+        <v>0.48402777777777778</v>
+      </c>
+      <c r="C24" s="25">
+        <v>0.80555555555555547</v>
+      </c>
       <c r="D24" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E24" s="28"/>
-      <c r="F24" s="27"/>
+        <f>C24-B24</f>
+        <v>0.32152777777777769</v>
+      </c>
+      <c r="E24" s="28">
+        <v>3</v>
+      </c>
+      <c r="F24" s="27" t="s">
+        <v>37</v>
+      </c>
       <c r="G24" s="27"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">

--- a/Työaikakirjanpidot/Työaikakirjanpito - Eetu Pihamäki.xlsx
+++ b/Työaikakirjanpidot/Työaikakirjanpito - Eetu Pihamäki.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Monialaprojekti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{397EFE79-00E8-486F-AA06-F4308DBDBB85}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6115445C-01D1-4F77-934F-CF32DF514856}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="9945" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="9945" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summasivu" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
   <si>
     <t>Projekti/asiakas:</t>
   </si>
@@ -228,6 +228,9 @@
   </si>
   <si>
     <t>4 h midPointin ja testipalvelimen liittämistä niin että midPointista saadaan lisättyä käyttäjiä palvelimeen oikeilla asetuksilla (mm. admin käyttäjät saavat sudo oikeudet ja normaalikäyttäjät eivät pysty mm. muuttamaan asetustiedostoja jne.) Testattiin liittää useita erilaisia käyttäjiä palvelimeen midPointin kautta sekä ryhmä ja rooli jakoa käyttäjille. 1h 30 min Otin selvää midPointin lokeista /var/log/authlog, /var/log/syslog --&gt; ei löytynyt mm. käyttäjien lisäämis tietoja ja ajankohtia. Katsoin myös midPoint GUI:sta lokeja jos löytyisi kiinnostavampaa loki tietoa, oli hieman epäselvää joten katsoin midPointin omasta dokumentaatiosta apua lokien selaamiseen --&gt; https://wiki.evolveum.com/display/midPoint/Log+Viewer</t>
+  </si>
+  <si>
+    <t>1h etsin lokit midPointista ja exportasin ne csv-tiedostona. Lisäsin ne GitHubiin kansion "midPoint lokit" alle. 5 h asensin mm. eclipsen eri versioita Ubuntu Desktop VM:ään ja yritin saada toimimaan. Jäi kesken. Piti saada Log Viewer toimimaan. https://github.com/Eetu95/Open-source-IdM-solution/blob/master/Eetun%20muistiinpanoja/Ty%C3%B6t%20-%202.11.2018.txt</t>
   </si>
 </sst>
 </file>
@@ -1063,7 +1066,7 @@
       </c>
       <c r="C4" s="7">
         <f>$B$8</f>
-        <v>3.4895833333333335</v>
+        <v>3.7708333333333335</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="9"/>
@@ -1091,7 +1094,7 @@
       </c>
       <c r="B7" s="15">
         <f>'Eetu Pihamäki'!$C$5</f>
-        <v>3.4895833333333335</v>
+        <v>3.7708333333333335</v>
       </c>
       <c r="C7" s="1"/>
     </row>
@@ -1101,7 +1104,7 @@
       </c>
       <c r="B8" s="17">
         <f>SUM(B7:B7)</f>
-        <v>3.4895833333333335</v>
+        <v>3.7708333333333335</v>
       </c>
       <c r="C8" s="1"/>
     </row>
@@ -1137,8 +1140,8 @@
   </sheetPr>
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1208,7 +1211,7 @@
       </c>
       <c r="C5" s="7">
         <f>SUM(D8:D37)</f>
-        <v>3.4895833333333335</v>
+        <v>3.7708333333333335</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
@@ -1619,16 +1622,24 @@
       </c>
       <c r="G24" s="27"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="24"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
+    <row r="25" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A25" s="24">
+        <v>43406</v>
+      </c>
+      <c r="B25" s="25">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C25" s="25">
+        <v>0.67708333333333337</v>
+      </c>
       <c r="D25" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.28125000000000006</v>
       </c>
       <c r="E25" s="28"/>
-      <c r="F25" s="27"/>
+      <c r="F25" s="27" t="s">
+        <v>38</v>
+      </c>
       <c r="G25" s="27"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">

--- a/Työaikakirjanpidot/Työaikakirjanpito - Eetu Pihamäki.xlsx
+++ b/Työaikakirjanpidot/Työaikakirjanpito - Eetu Pihamäki.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Monialaprojekti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6115445C-01D1-4F77-934F-CF32DF514856}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8A4902C-0AA3-4D1F-A1E6-286DD3107BC3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="9945" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
   <si>
     <t>Projekti/asiakas:</t>
   </si>
@@ -227,10 +227,13 @@
     <t>1 h Projektipäällikön hallinnollisia tehtäviä (Pöytäkirja,  tuntikirjanpito jne.) 50 min Windows Server 2016 aktivointiavain toimimaan --&gt; Microsoft Supportille soitto ja chat.  https://github.com/Eetu95/Open-source-IdM-solution/blob/master/Eetun%20muistiinpanoja/Ty%C3%B6t%20-%2029.10.2018.txt</t>
   </si>
   <si>
-    <t>4 h midPointin ja testipalvelimen liittämistä niin että midPointista saadaan lisättyä käyttäjiä palvelimeen oikeilla asetuksilla (mm. admin käyttäjät saavat sudo oikeudet ja normaalikäyttäjät eivät pysty mm. muuttamaan asetustiedostoja jne.) Testattiin liittää useita erilaisia käyttäjiä palvelimeen midPointin kautta sekä ryhmä ja rooli jakoa käyttäjille. 1h 30 min Otin selvää midPointin lokeista /var/log/authlog, /var/log/syslog --&gt; ei löytynyt mm. käyttäjien lisäämis tietoja ja ajankohtia. Katsoin myös midPoint GUI:sta lokeja jos löytyisi kiinnostavampaa loki tietoa, oli hieman epäselvää joten katsoin midPointin omasta dokumentaatiosta apua lokien selaamiseen --&gt; https://wiki.evolveum.com/display/midPoint/Log+Viewer</t>
-  </si>
-  <si>
     <t>1h etsin lokit midPointista ja exportasin ne csv-tiedostona. Lisäsin ne GitHubiin kansion "midPoint lokit" alle. 5 h asensin mm. eclipsen eri versioita Ubuntu Desktop VM:ään ja yritin saada toimimaan. Jäi kesken. Piti saada Log Viewer toimimaan. https://github.com/Eetu95/Open-source-IdM-solution/blob/master/Eetun%20muistiinpanoja/Ty%C3%B6t%20-%202.11.2018.txt</t>
+  </si>
+  <si>
+    <t>1h 30 min Asentelin "Eclipse for Java and DSL Developers" pakettia ja yritin saada asennettua midPointin Log Viewer pluginia. Homma kaatui siihen, että Eclipse installerin help nappula ei toiminut, jonka kautta pluginin olisi voinut asentaa.  Myös pluginia itse kasattaessa tuli Maven erroria. Dokumentaatiossa kerrottiin myös, että SSL sertifikaatti ongelmia oli mahdollisesti tulossa. 30 min katselin midPointin dokumentaatiosta sekä Googlasin uusia connectroreita. Suunnittelin seuraavaan kertaan SSL/HTTPS -yhteyksien tekoa. https://github.com/Eetu95/Open-source-IdM-solution/blob/master/Eetun%20muistiinpanoja/Ty%C3%B6t%20-%205.11.2018.txt</t>
+  </si>
+  <si>
+    <t>4 h midPointin ja testipalvelimen liittämistä niin että midPointista saadaan lisättyä käyttäjiä palvelimeen oikeilla asetuksilla (mm. admin käyttäjät saavat sudo oikeudet ja normaalikäyttäjät eivät pysty mm. muuttamaan asetustiedostoja jne.) Testattiin liittää useita erilaisia käyttäjiä palvelimeen midPointin kautta sekä ryhmä ja rooli jakoa käyttäjille. 1h 30 min Otin selvää midPointin lokeista /var/log/authlog, /var/log/syslog --&gt; ei löytynyt mm. käyttäjien lisäämis tietoja ja ajankohtia. Katsoin myös midPoint GUI:sta lokeja jos löytyisi kiinnostavampaa loki tietoa, oli hieman epäselvää joten katsoin midPointin omasta dokumentaatiosta apua lokien selaamiseen --&gt; https://wiki.evolveum.com/display/midPoint/Log+Viewer. https://github.com/Eetu95/Open-source-IdM-solution/blob/master/Eetun%20muistiinpanoja/Ty%C3%B6t%20-%2031.10.2018.txt</t>
   </si>
 </sst>
 </file>
@@ -1066,7 +1069,7 @@
       </c>
       <c r="C4" s="7">
         <f>$B$8</f>
-        <v>3.7708333333333335</v>
+        <v>3.8694444444444445</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="9"/>
@@ -1094,7 +1097,7 @@
       </c>
       <c r="B7" s="15">
         <f>'Eetu Pihamäki'!$C$5</f>
-        <v>3.7708333333333335</v>
+        <v>3.8694444444444445</v>
       </c>
       <c r="C7" s="1"/>
     </row>
@@ -1104,7 +1107,7 @@
       </c>
       <c r="B8" s="17">
         <f>SUM(B7:B7)</f>
-        <v>3.7708333333333335</v>
+        <v>3.8694444444444445</v>
       </c>
       <c r="C8" s="1"/>
     </row>
@@ -1140,8 +1143,8 @@
   </sheetPr>
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1211,7 +1214,7 @@
       </c>
       <c r="C5" s="7">
         <f>SUM(D8:D37)</f>
-        <v>3.7708333333333335</v>
+        <v>3.8694444444444445</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
@@ -1600,7 +1603,7 @@
       </c>
       <c r="G23" s="27"/>
     </row>
-    <row r="24" spans="1:7" ht="195" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="240" x14ac:dyDescent="0.25">
       <c r="A24" s="24">
         <v>43404</v>
       </c>
@@ -1618,7 +1621,7 @@
         <v>3</v>
       </c>
       <c r="F24" s="27" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G24" s="27"/>
     </row>
@@ -1638,20 +1641,30 @@
       </c>
       <c r="E25" s="28"/>
       <c r="F25" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G25" s="27"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="24"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
+    <row r="26" spans="1:7" ht="195" x14ac:dyDescent="0.25">
+      <c r="A26" s="24">
+        <v>43409</v>
+      </c>
+      <c r="B26" s="25">
+        <v>0.71875</v>
+      </c>
+      <c r="C26" s="25">
+        <v>0.81736111111111109</v>
+      </c>
       <c r="D26" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E26" s="28"/>
-      <c r="F26" s="27"/>
+        <v>9.8611111111111094E-2</v>
+      </c>
+      <c r="E26" s="28">
+        <v>3</v>
+      </c>
+      <c r="F26" s="27" t="s">
+        <v>38</v>
+      </c>
       <c r="G26" s="27"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">

--- a/Työaikakirjanpidot/Työaikakirjanpito - Eetu Pihamäki.xlsx
+++ b/Työaikakirjanpidot/Työaikakirjanpito - Eetu Pihamäki.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Monialaprojekti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8A4902C-0AA3-4D1F-A1E6-286DD3107BC3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{615DFCB9-BD51-40F5-A9C1-9CCF77A2AC86}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="9945" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14340" windowHeight="7380" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summasivu" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t>Projekti/asiakas:</t>
   </si>
@@ -234,6 +234,9 @@
   </si>
   <si>
     <t>4 h midPointin ja testipalvelimen liittämistä niin että midPointista saadaan lisättyä käyttäjiä palvelimeen oikeilla asetuksilla (mm. admin käyttäjät saavat sudo oikeudet ja normaalikäyttäjät eivät pysty mm. muuttamaan asetustiedostoja jne.) Testattiin liittää useita erilaisia käyttäjiä palvelimeen midPointin kautta sekä ryhmä ja rooli jakoa käyttäjille. 1h 30 min Otin selvää midPointin lokeista /var/log/authlog, /var/log/syslog --&gt; ei löytynyt mm. käyttäjien lisäämis tietoja ja ajankohtia. Katsoin myös midPoint GUI:sta lokeja jos löytyisi kiinnostavampaa loki tietoa, oli hieman epäselvää joten katsoin midPointin omasta dokumentaatiosta apua lokien selaamiseen --&gt; https://wiki.evolveum.com/display/midPoint/Log+Viewer. https://github.com/Eetu95/Open-source-IdM-solution/blob/master/Eetun%20muistiinpanoja/Ty%C3%B6t%20-%2031.10.2018.txt</t>
+  </si>
+  <si>
+    <t>1 h ohjauskokouksessa. 4 h Eclipsen asennus, midPoint Log Viewer -pluginin asennus siihen ja sen testailua. 2 h midPointin dokumentaation lukemista aiheesta: Encryption and keys (kuinka tehdään avaimia ja missä niitä säilytetään jne.). Tutustuin myös itsekirjoitetun sertifikaatin tekoon. https://github.com/Eetu95/Open-source-IdM-solution/blob/master/Eetun%20muistiinpanoja/Ty%C3%B6t%20-%207.11.2018.txt</t>
   </si>
 </sst>
 </file>
@@ -1069,7 +1072,7 @@
       </c>
       <c r="C4" s="7">
         <f>$B$8</f>
-        <v>3.8694444444444445</v>
+        <v>4.1819444444444445</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="9"/>
@@ -1097,7 +1100,7 @@
       </c>
       <c r="B7" s="15">
         <f>'Eetu Pihamäki'!$C$5</f>
-        <v>3.8694444444444445</v>
+        <v>4.1819444444444445</v>
       </c>
       <c r="C7" s="1"/>
     </row>
@@ -1107,7 +1110,7 @@
       </c>
       <c r="B8" s="17">
         <f>SUM(B7:B7)</f>
-        <v>3.8694444444444445</v>
+        <v>4.1819444444444445</v>
       </c>
       <c r="C8" s="1"/>
     </row>
@@ -1143,8 +1146,8 @@
   </sheetPr>
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1214,7 +1217,7 @@
       </c>
       <c r="C5" s="7">
         <f>SUM(D8:D37)</f>
-        <v>3.8694444444444445</v>
+        <v>4.1819444444444445</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
@@ -1262,7 +1265,7 @@
         <v>0.82291666666666663</v>
       </c>
       <c r="D8" s="26">
-        <f t="shared" ref="D8:D26" si="0">C8-B8</f>
+        <f t="shared" ref="D8:D27" si="0">C8-B8</f>
         <v>9.375E-2</v>
       </c>
       <c r="E8" s="28">
@@ -1667,13 +1670,26 @@
       </c>
       <c r="G26" s="27"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="24"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="27"/>
+    <row r="27" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A27" s="24">
+        <v>43411</v>
+      </c>
+      <c r="B27" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="C27" s="25">
+        <v>0.8125</v>
+      </c>
+      <c r="D27" s="26">
+        <f t="shared" si="0"/>
+        <v>0.3125</v>
+      </c>
+      <c r="E27" s="28">
+        <v>3</v>
+      </c>
+      <c r="F27" s="29" t="s">
+        <v>40</v>
+      </c>
       <c r="G27" s="27"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">

--- a/Työaikakirjanpidot/Työaikakirjanpito - Eetu Pihamäki.xlsx
+++ b/Työaikakirjanpidot/Työaikakirjanpito - Eetu Pihamäki.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Monialaprojekti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{615DFCB9-BD51-40F5-A9C1-9CCF77A2AC86}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{28E33AE8-ADDD-4FFB-BADA-63CE42BEFF35}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14340" windowHeight="7380" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6120" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summasivu" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>Projekti/asiakas:</t>
   </si>
@@ -237,6 +237,9 @@
   </si>
   <si>
     <t>1 h ohjauskokouksessa. 4 h Eclipsen asennus, midPoint Log Viewer -pluginin asennus siihen ja sen testailua. 2 h midPointin dokumentaation lukemista aiheesta: Encryption and keys (kuinka tehdään avaimia ja missä niitä säilytetään jne.). Tutustuin myös itsekirjoitetun sertifikaatin tekoon. https://github.com/Eetu95/Open-source-IdM-solution/blob/master/Eetun%20muistiinpanoja/Ty%C3%B6t%20-%207.11.2018.txt</t>
+  </si>
+  <si>
+    <t>4h Mm. Open ssl:llä salausavainten tekoa, itsekirjoitetun sertifikaatin luonti ja sen lisääminen keystore.jceks -tiedostoon. JVM-keystore jne. https://github.com/Eetu95/Open-source-IdM-solution/blob/master/Eetun%20muistiinpanoja/Ty%C3%B6t%20-%209.11.2018.txt</t>
   </si>
 </sst>
 </file>
@@ -1072,7 +1075,7 @@
       </c>
       <c r="C4" s="7">
         <f>$B$8</f>
-        <v>4.1819444444444445</v>
+        <v>4.3972222222222221</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="9"/>
@@ -1100,7 +1103,7 @@
       </c>
       <c r="B7" s="15">
         <f>'Eetu Pihamäki'!$C$5</f>
-        <v>4.1819444444444445</v>
+        <v>4.3972222222222221</v>
       </c>
       <c r="C7" s="1"/>
     </row>
@@ -1110,7 +1113,7 @@
       </c>
       <c r="B8" s="17">
         <f>SUM(B7:B7)</f>
-        <v>4.1819444444444445</v>
+        <v>4.3972222222222221</v>
       </c>
       <c r="C8" s="1"/>
     </row>
@@ -1147,7 +1150,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1217,7 +1220,7 @@
       </c>
       <c r="C5" s="7">
         <f>SUM(D8:D37)</f>
-        <v>4.1819444444444445</v>
+        <v>4.3972222222222221</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
@@ -1692,16 +1695,26 @@
       </c>
       <c r="G27" s="27"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="24"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
+    <row r="28" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A28" s="24">
+        <v>43413</v>
+      </c>
+      <c r="B28" s="25">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C28" s="25">
+        <v>0.63194444444444442</v>
+      </c>
       <c r="D28" s="26">
         <f t="shared" ref="D28:D36" si="1">C28-B28</f>
-        <v>0</v>
-      </c>
-      <c r="E28" s="28"/>
-      <c r="F28" s="27"/>
+        <v>0.21527777777777773</v>
+      </c>
+      <c r="E28" s="28">
+        <v>3</v>
+      </c>
+      <c r="F28" s="27" t="s">
+        <v>41</v>
+      </c>
       <c r="G28" s="27"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">

--- a/Työaikakirjanpidot/Työaikakirjanpito - Eetu Pihamäki.xlsx
+++ b/Työaikakirjanpidot/Työaikakirjanpito - Eetu Pihamäki.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Monialaprojekti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28E33AE8-ADDD-4FFB-BADA-63CE42BEFF35}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B3B8A96-8BE5-4354-A7D7-04290CD15BC0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6120" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="6120" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summasivu" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
   <si>
     <t>Projekti/asiakas:</t>
   </si>
@@ -240,6 +240,9 @@
   </si>
   <si>
     <t>4h Mm. Open ssl:llä salausavainten tekoa, itsekirjoitetun sertifikaatin luonti ja sen lisääminen keystore.jceks -tiedostoon. JVM-keystore jne. https://github.com/Eetu95/Open-source-IdM-solution/blob/master/Eetun%20muistiinpanoja/Ty%C3%B6t%20-%209.11.2018.txt</t>
+  </si>
+  <si>
+    <t>2 h 20 min yritin Markuksen kanssa saada OpenSSL sertifikaattia toimimaan, niin että Windows 10 Pro työasema löytäisi sen OpenSSL:llä. https://github.com/Eetu95/Open-source-IdM-solution/blob/master/Eetun%20muistiinpanoja/Ty%C3%B6t%20-%2012.11.2018.txt</t>
   </si>
 </sst>
 </file>
@@ -1075,7 +1078,7 @@
       </c>
       <c r="C4" s="7">
         <f>$B$8</f>
-        <v>4.3972222222222221</v>
+        <v>4.5083333333333329</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="9"/>
@@ -1103,7 +1106,7 @@
       </c>
       <c r="B7" s="15">
         <f>'Eetu Pihamäki'!$C$5</f>
-        <v>4.3972222222222221</v>
+        <v>4.5083333333333329</v>
       </c>
       <c r="C7" s="1"/>
     </row>
@@ -1113,7 +1116,7 @@
       </c>
       <c r="B8" s="17">
         <f>SUM(B7:B7)</f>
-        <v>4.3972222222222221</v>
+        <v>4.5083333333333329</v>
       </c>
       <c r="C8" s="1"/>
     </row>
@@ -1149,7 +1152,7 @@
   </sheetPr>
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
@@ -1220,7 +1223,7 @@
       </c>
       <c r="C5" s="7">
         <f>SUM(D8:D37)</f>
-        <v>4.3972222222222221</v>
+        <v>4.5083333333333329</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
@@ -1717,16 +1720,26 @@
       </c>
       <c r="G28" s="27"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="24"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
+    <row r="29" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A29" s="24">
+        <v>43416</v>
+      </c>
+      <c r="B29" s="25">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C29" s="25">
+        <v>0.81944444444444453</v>
+      </c>
       <c r="D29" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E29" s="28"/>
-      <c r="F29" s="27"/>
+        <v>0.11111111111111116</v>
+      </c>
+      <c r="E29" s="28">
+        <v>4</v>
+      </c>
+      <c r="F29" s="27" t="s">
+        <v>42</v>
+      </c>
       <c r="G29" s="27"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">

--- a/Työaikakirjanpidot/Työaikakirjanpito - Eetu Pihamäki.xlsx
+++ b/Työaikakirjanpidot/Työaikakirjanpito - Eetu Pihamäki.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Monialaprojekti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B3B8A96-8BE5-4354-A7D7-04290CD15BC0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{77639789-263A-4691-939E-9967D1684F69}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="6120" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
   <si>
     <t>Projekti/asiakas:</t>
   </si>
@@ -243,6 +243,9 @@
   </si>
   <si>
     <t>2 h 20 min yritin Markuksen kanssa saada OpenSSL sertifikaattia toimimaan, niin että Windows 10 Pro työasema löytäisi sen OpenSSL:llä. https://github.com/Eetu95/Open-source-IdM-solution/blob/master/Eetun%20muistiinpanoja/Ty%C3%B6t%20-%2012.11.2018.txt</t>
+  </si>
+  <si>
+    <t>SSL sertifikaatin konfigurointia ja ongelmanratkomista. https://github.com/Eetu95/Open-source-IdM-solution/blob/master/Eetun%20muistiinpanoja/Ty%C3%B6t%20-%2014.11.2018.txt</t>
   </si>
 </sst>
 </file>
@@ -1078,7 +1081,7 @@
       </c>
       <c r="C4" s="7">
         <f>$B$8</f>
-        <v>4.5083333333333329</v>
+        <v>4.7583333333333329</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="9"/>
@@ -1106,7 +1109,7 @@
       </c>
       <c r="B7" s="15">
         <f>'Eetu Pihamäki'!$C$5</f>
-        <v>4.5083333333333329</v>
+        <v>4.7583333333333329</v>
       </c>
       <c r="C7" s="1"/>
     </row>
@@ -1116,7 +1119,7 @@
       </c>
       <c r="B8" s="17">
         <f>SUM(B7:B7)</f>
-        <v>4.5083333333333329</v>
+        <v>4.7583333333333329</v>
       </c>
       <c r="C8" s="1"/>
     </row>
@@ -1153,7 +1156,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1223,7 +1226,7 @@
       </c>
       <c r="C5" s="7">
         <f>SUM(D8:D37)</f>
-        <v>4.5083333333333329</v>
+        <v>4.7583333333333329</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
@@ -1742,16 +1745,26 @@
       </c>
       <c r="G29" s="27"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="24"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
+    <row r="30" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" s="24">
+        <v>43418</v>
+      </c>
+      <c r="B30" s="25">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C30" s="25">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="D30" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E30" s="28"/>
-      <c r="F30" s="27"/>
+        <v>0.25</v>
+      </c>
+      <c r="E30" s="28">
+        <v>4</v>
+      </c>
+      <c r="F30" s="27" t="s">
+        <v>43</v>
+      </c>
       <c r="G30" s="27"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">

--- a/Työaikakirjanpidot/Työaikakirjanpito - Eetu Pihamäki.xlsx
+++ b/Työaikakirjanpidot/Työaikakirjanpito - Eetu Pihamäki.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Monialaprojekti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77639789-263A-4691-939E-9967D1684F69}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E22F958E-3945-463E-8827-070EC4CD9E0C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="6120" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10755" windowHeight="6015" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summasivu" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
   <si>
     <t>Projekti/asiakas:</t>
   </si>
@@ -246,6 +246,9 @@
   </si>
   <si>
     <t>SSL sertifikaatin konfigurointia ja ongelmanratkomista. https://github.com/Eetu95/Open-source-IdM-solution/blob/master/Eetun%20muistiinpanoja/Ty%C3%B6t%20-%2014.11.2018.txt</t>
+  </si>
+  <si>
+    <t>1h Samaa kuin viime kerralla. https://github.com/Eetu95/Open-source-IdM-solution/blob/master/Eetun%20muistiinpanoja/Ty%C3%B6t%20-%2016.11.2018.txt</t>
   </si>
 </sst>
 </file>
@@ -1081,7 +1084,7 @@
       </c>
       <c r="C4" s="7">
         <f>$B$8</f>
-        <v>4.7583333333333329</v>
+        <v>4.8</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="9"/>
@@ -1109,7 +1112,7 @@
       </c>
       <c r="B7" s="15">
         <f>'Eetu Pihamäki'!$C$5</f>
-        <v>4.7583333333333329</v>
+        <v>4.8</v>
       </c>
       <c r="C7" s="1"/>
     </row>
@@ -1119,7 +1122,7 @@
       </c>
       <c r="B8" s="17">
         <f>SUM(B7:B7)</f>
-        <v>4.7583333333333329</v>
+        <v>4.8</v>
       </c>
       <c r="C8" s="1"/>
     </row>
@@ -1156,7 +1159,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1226,7 +1229,7 @@
       </c>
       <c r="C5" s="7">
         <f>SUM(D8:D37)</f>
-        <v>4.7583333333333329</v>
+        <v>4.8</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
@@ -1767,16 +1770,26 @@
       </c>
       <c r="G30" s="27"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="24"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
+    <row r="31" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" s="24">
+        <v>43420</v>
+      </c>
+      <c r="B31" s="25">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C31" s="25">
+        <v>0.5</v>
+      </c>
       <c r="D31" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E31" s="28"/>
-      <c r="F31" s="27"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="E31" s="28">
+        <v>4</v>
+      </c>
+      <c r="F31" s="27" t="s">
+        <v>44</v>
+      </c>
       <c r="G31" s="27"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">

--- a/Työaikakirjanpidot/Työaikakirjanpito - Eetu Pihamäki.xlsx
+++ b/Työaikakirjanpidot/Työaikakirjanpito - Eetu Pihamäki.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Monialaprojekti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E22F958E-3945-463E-8827-070EC4CD9E0C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10755" windowHeight="6015" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14280" windowHeight="9300" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Summasivu" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Eetu Pihamäki'!$A$1:$G$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Summasivu!$A$1:$F$12</definedName>
   </definedNames>
-  <calcPr calcId="179021" iterateDelta="1E-4"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
   <si>
     <t>Projekti/asiakas:</t>
   </si>
@@ -250,11 +249,17 @@
   <si>
     <t>1h Samaa kuin viime kerralla. https://github.com/Eetu95/Open-source-IdM-solution/blob/master/Eetun%20muistiinpanoja/Ty%C3%B6t%20-%2016.11.2018.txt</t>
   </si>
+  <si>
+    <t>2h Samaa kuin viime kerralla. https://github.com/Eetu95/Open-source-IdM-solution/blob/master/Eetun%20muistiinpanoja/Ty%C3%B6t%20-%2019.11.2018.txt</t>
+  </si>
+  <si>
+    <t>4h Saatiin viimein SSL suojatut yhteydet toimimaan midPointissa.  1h AD:ta ei vielä saatu toimimaan niin, että se lisäisi käyttäjän midPointtiin tai toisinpäin (users). https://github.com/Eetu95/Open-source-IdM-solution/blob/master/Eetun%20muistiinpanoja/Ty%C3%B6t%20-%2021.11.2018.txt</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="d\.m\.yyyy;@"/>
     <numFmt numFmtId="165" formatCode="h:mm;@"/>
@@ -696,27 +701,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A6:B8" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
-  <autoFilter ref="A6:B8" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A6:B8" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
+  <autoFilter ref="A6:B8"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Jäsen" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Työtunnit (h)" dataDxfId="0"/>
+    <tableColumn id="1" name="Jäsen" dataDxfId="1"/>
+    <tableColumn id="2" name="Työtunnit (h)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table3" displayName="Table3" ref="A7:G37" totalsRowShown="0">
-  <autoFilter ref="A7:G37" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A7:G37" totalsRowShown="0">
+  <autoFilter ref="A7:G37"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Pvm"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Aloitusklo (xx:xx)"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Lopetusklo (xx:xx)"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Työaika"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Sprint"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Tehtävä"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Määr Suun Kood Test"/>
+    <tableColumn id="1" name="Pvm"/>
+    <tableColumn id="2" name="Aloitusklo (xx:xx)"/>
+    <tableColumn id="3" name="Lopetusklo (xx:xx)"/>
+    <tableColumn id="4" name="Työaika"/>
+    <tableColumn id="5" name="Sprint"/>
+    <tableColumn id="6" name="Tehtävä"/>
+    <tableColumn id="7" name="Määr Suun Kood Test"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1018,7 +1023,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1084,7 +1089,7 @@
       </c>
       <c r="C4" s="7">
         <f>$B$8</f>
-        <v>4.8</v>
+        <v>5.1444444444444439</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="9"/>
@@ -1112,7 +1117,7 @@
       </c>
       <c r="B7" s="15">
         <f>'Eetu Pihamäki'!$C$5</f>
-        <v>4.8</v>
+        <v>5.1444444444444439</v>
       </c>
       <c r="C7" s="1"/>
     </row>
@@ -1122,7 +1127,7 @@
       </c>
       <c r="B8" s="17">
         <f>SUM(B7:B7)</f>
-        <v>4.8</v>
+        <v>5.1444444444444439</v>
       </c>
       <c r="C8" s="1"/>
     </row>
@@ -1152,14 +1157,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1229,7 +1234,7 @@
       </c>
       <c r="C5" s="7">
         <f>SUM(D8:D37)</f>
-        <v>4.8</v>
+        <v>5.1444444444444439</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
@@ -1792,28 +1797,48 @@
       </c>
       <c r="G31" s="27"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="24"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
+    <row r="32" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="24">
+        <v>43423</v>
+      </c>
+      <c r="B32" s="25">
+        <v>0.71875</v>
+      </c>
+      <c r="C32" s="25">
+        <v>0.8125</v>
+      </c>
       <c r="D32" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E32" s="28"/>
-      <c r="F32" s="27"/>
+        <v>9.375E-2</v>
+      </c>
+      <c r="E32" s="28">
+        <v>4</v>
+      </c>
+      <c r="F32" s="27" t="s">
+        <v>45</v>
+      </c>
       <c r="G32" s="27"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="24"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
+    <row r="33" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A33" s="24">
+        <v>43425</v>
+      </c>
+      <c r="B33" s="25">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="C33" s="25">
+        <v>0.80625000000000002</v>
+      </c>
       <c r="D33" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E33" s="28"/>
-      <c r="F33" s="27"/>
+        <f>C33-B33</f>
+        <v>0.25069444444444444</v>
+      </c>
+      <c r="E33" s="28">
+        <v>4</v>
+      </c>
+      <c r="F33" s="27" t="s">
+        <v>46</v>
+      </c>
       <c r="G33" s="27"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">

--- a/Työaikakirjanpidot/Työaikakirjanpito - Eetu Pihamäki.xlsx
+++ b/Työaikakirjanpidot/Työaikakirjanpito - Eetu Pihamäki.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14280" windowHeight="9300" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10020" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Summasivu" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
   <si>
     <t>Projekti/asiakas:</t>
   </si>
@@ -254,6 +254,9 @@
   </si>
   <si>
     <t>4h Saatiin viimein SSL suojatut yhteydet toimimaan midPointissa.  1h AD:ta ei vielä saatu toimimaan niin, että se lisäisi käyttäjän midPointtiin tai toisinpäin (users). https://github.com/Eetu95/Open-source-IdM-solution/blob/master/Eetun%20muistiinpanoja/Ty%C3%B6t%20-%2021.11.2018.txt</t>
+  </si>
+  <si>
+    <t>5h AD:n kanssa säheltämistä Markuksen kanssa. https://github.com/Eetu95/Open-source-IdM-solution/blob/master/Eetun%20muistiinpanoja/Ty%C3%B6t%20-%2023.11.2018.txt</t>
   </si>
 </sst>
 </file>
@@ -1089,7 +1092,7 @@
       </c>
       <c r="C4" s="7">
         <f>$B$8</f>
-        <v>5.1444444444444439</v>
+        <v>5.384722222222222</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="9"/>
@@ -1117,7 +1120,7 @@
       </c>
       <c r="B7" s="15">
         <f>'Eetu Pihamäki'!$C$5</f>
-        <v>5.1444444444444439</v>
+        <v>5.384722222222222</v>
       </c>
       <c r="C7" s="1"/>
     </row>
@@ -1127,7 +1130,7 @@
       </c>
       <c r="B8" s="17">
         <f>SUM(B7:B7)</f>
-        <v>5.1444444444444439</v>
+        <v>5.384722222222222</v>
       </c>
       <c r="C8" s="1"/>
     </row>
@@ -1163,8 +1166,8 @@
   </sheetPr>
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1234,7 +1237,7 @@
       </c>
       <c r="C5" s="7">
         <f>SUM(D8:D37)</f>
-        <v>5.1444444444444439</v>
+        <v>5.384722222222222</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
@@ -1841,16 +1844,26 @@
       </c>
       <c r="G33" s="27"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="24"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
+    <row r="34" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A34" s="24">
+        <v>43427</v>
+      </c>
+      <c r="B34" s="25">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="C34" s="25">
+        <v>0.66736111111111107</v>
+      </c>
       <c r="D34" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E34" s="28"/>
-      <c r="F34" s="27"/>
+        <v>0.24027777777777776</v>
+      </c>
+      <c r="E34" s="28">
+        <v>4</v>
+      </c>
+      <c r="F34" s="27" t="s">
+        <v>47</v>
+      </c>
       <c r="G34" s="27"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">

--- a/Työaikakirjanpidot/Työaikakirjanpito - Eetu Pihamäki.xlsx
+++ b/Työaikakirjanpidot/Työaikakirjanpito - Eetu Pihamäki.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10020" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Summasivu" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
   <si>
     <t>Projekti/asiakas:</t>
   </si>
@@ -257,6 +257,15 @@
   </si>
   <si>
     <t>5h AD:n kanssa säheltämistä Markuksen kanssa. https://github.com/Eetu95/Open-source-IdM-solution/blob/master/Eetun%20muistiinpanoja/Ty%C3%B6t%20-%2023.11.2018.txt</t>
+  </si>
+  <si>
+    <t>1h 30 min Loppuraportin kirjoittamisen aloittelua. Neuvottelua projektiryhmän kanssa. https://github.com/Eetu95/Open-source-IdM-solution/blob/master/Loppuraportti/Avoimen_l%C3%A4hdekoodin_IdM_ratkaisu_Loppuraportti.md</t>
+  </si>
+  <si>
+    <t>3h 30 min Kirjoitin loppuraporttiin midPoint palvelimen asennuksesta. https://github.com/Eetu95/Open-source-IdM-solution/blob/master/Loppuraportti/Avoimen_l%C3%A4hdekoodin_IdM_ratkaisu_Loppuraportti.md</t>
+  </si>
+  <si>
+    <t>5h Kirjoitin loppuraporttiin avoimen lähdekoodin IdM-järjestelmä vertailusta. https://github.com/Eetu95/Open-source-IdM-solution/blob/master/Eetun%20muistiinpanoja/Ty%C3%B6t%20-%2028.11.2018.txt       https://github.com/Eetu95/Open-source-IdM-solution/blob/master/Loppuraportti/Avoimen_l%C3%A4hdekoodin_IdM_ratkaisu_Loppuraportti.md</t>
   </si>
 </sst>
 </file>
@@ -1092,7 +1101,7 @@
       </c>
       <c r="C4" s="7">
         <f>$B$8</f>
-        <v>5.384722222222222</v>
+        <v>5.8506944444444438</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="9"/>
@@ -1120,7 +1129,7 @@
       </c>
       <c r="B7" s="15">
         <f>'Eetu Pihamäki'!$C$5</f>
-        <v>5.384722222222222</v>
+        <v>5.8506944444444438</v>
       </c>
       <c r="C7" s="1"/>
     </row>
@@ -1130,7 +1139,7 @@
       </c>
       <c r="B8" s="17">
         <f>SUM(B7:B7)</f>
-        <v>5.384722222222222</v>
+        <v>5.8506944444444438</v>
       </c>
       <c r="C8" s="1"/>
     </row>
@@ -1166,8 +1175,8 @@
   </sheetPr>
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1237,7 +1246,7 @@
       </c>
       <c r="C5" s="7">
         <f>SUM(D8:D37)</f>
-        <v>5.384722222222222</v>
+        <v>5.8506944444444438</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
@@ -1723,7 +1732,7 @@
         <v>0.63194444444444442</v>
       </c>
       <c r="D28" s="26">
-        <f t="shared" ref="D28:D36" si="1">C28-B28</f>
+        <f t="shared" ref="D28:D37" si="1">C28-B28</f>
         <v>0.21527777777777773</v>
       </c>
       <c r="E28" s="28">
@@ -1866,37 +1875,70 @@
       </c>
       <c r="G34" s="27"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="24"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
+    <row r="35" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A35" s="24">
+        <v>43430</v>
+      </c>
+      <c r="B35" s="25">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="C35" s="25">
+        <v>0.80555555555555547</v>
+      </c>
       <c r="D35" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E35" s="28"/>
-      <c r="F35" s="27"/>
+        <v>6.9444444444444309E-2</v>
+      </c>
+      <c r="E35" s="28">
+        <v>4</v>
+      </c>
+      <c r="F35" s="27" t="s">
+        <v>48</v>
+      </c>
       <c r="G35" s="27"/>
     </row>
-    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="24"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
+    <row r="36" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A36" s="24">
+        <v>43432</v>
+      </c>
+      <c r="B36" s="25">
+        <v>0.52638888888888891</v>
+      </c>
+      <c r="C36" s="25">
+        <v>0.75694444444444453</v>
+      </c>
       <c r="D36" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E36" s="28"/>
-      <c r="F36" s="27"/>
+        <v>0.23055555555555562</v>
+      </c>
+      <c r="E36" s="28">
+        <v>4</v>
+      </c>
+      <c r="F36" s="27" t="s">
+        <v>50</v>
+      </c>
       <c r="G36" s="27"/>
     </row>
     <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="24"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="27"/>
+      <c r="A37" s="24">
+        <v>43434</v>
+      </c>
+      <c r="B37" s="25">
+        <v>0.47291666666666665</v>
+      </c>
+      <c r="C37" s="25">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="D37" s="26">
+        <f t="shared" si="1"/>
+        <v>0.1659722222222223</v>
+      </c>
+      <c r="E37" s="28">
+        <v>4</v>
+      </c>
+      <c r="F37" s="27" t="s">
+        <v>49</v>
+      </c>
       <c r="G37" s="27"/>
     </row>
   </sheetData>

--- a/Työaikakirjanpidot/Työaikakirjanpito - Eetu Pihamäki.xlsx
+++ b/Työaikakirjanpidot/Työaikakirjanpito - Eetu Pihamäki.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10020" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Summasivu" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
   <si>
     <t>Projekti/asiakas:</t>
   </si>
@@ -267,6 +267,12 @@
   <si>
     <t>5h Kirjoitin loppuraporttiin avoimen lähdekoodin IdM-järjestelmä vertailusta. https://github.com/Eetu95/Open-source-IdM-solution/blob/master/Eetun%20muistiinpanoja/Ty%C3%B6t%20-%2028.11.2018.txt       https://github.com/Eetu95/Open-source-IdM-solution/blob/master/Loppuraportti/Avoimen_l%C3%A4hdekoodin_IdM_ratkaisu_Loppuraportti.md</t>
   </si>
+  <si>
+    <t>2h 10 min Loppurapotin kirjoittamista</t>
+  </si>
+  <si>
+    <t>5 h 30 min Loppuraportin kirjoittamista connectoreista</t>
+  </si>
 </sst>
 </file>
 
@@ -449,7 +455,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -531,6 +537,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -724,8 +737,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A7:G37" totalsRowShown="0">
-  <autoFilter ref="A7:G37"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A7:G40" totalsRowShown="0">
+  <autoFilter ref="A7:G40"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Pvm"/>
     <tableColumn id="2" name="Aloitusklo (xx:xx)"/>
@@ -1063,11 +1076,11 @@
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
       <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1075,11 +1088,11 @@
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1087,11 +1100,11 @@
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1101,7 +1114,7 @@
       </c>
       <c r="C4" s="7">
         <f>$B$8</f>
-        <v>5.8506944444444438</v>
+        <v>5.6493055555555554</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="9"/>
@@ -1129,7 +1142,7 @@
       </c>
       <c r="B7" s="15">
         <f>'Eetu Pihamäki'!$C$5</f>
-        <v>5.8506944444444438</v>
+        <v>5.6493055555555554</v>
       </c>
       <c r="C7" s="1"/>
     </row>
@@ -1139,7 +1152,7 @@
       </c>
       <c r="B8" s="17">
         <f>SUM(B7:B7)</f>
-        <v>5.8506944444444438</v>
+        <v>5.6493055555555554</v>
       </c>
       <c r="C8" s="1"/>
     </row>
@@ -1173,10 +1186,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1196,11 +1209,11 @@
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1208,11 +1221,11 @@
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1220,11 +1233,11 @@
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1232,11 +1245,11 @@
       <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1245,8 +1258,8 @@
         <v>12</v>
       </c>
       <c r="C5" s="7">
-        <f>SUM(D8:D37)</f>
-        <v>5.8506944444444438</v>
+        <f>SUM(D8:D40)</f>
+        <v>5.6493055555555554</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
@@ -1732,7 +1745,7 @@
         <v>0.63194444444444442</v>
       </c>
       <c r="D28" s="26">
-        <f t="shared" ref="D28:D37" si="1">C28-B28</f>
+        <f t="shared" ref="D28:D40" si="1">C28-B28</f>
         <v>0.21527777777777773</v>
       </c>
       <c r="E28" s="28">
@@ -1890,7 +1903,7 @@
         <v>6.9444444444444309E-2</v>
       </c>
       <c r="E35" s="28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F35" s="27" t="s">
         <v>48</v>
@@ -1912,14 +1925,14 @@
         <v>0.23055555555555562</v>
       </c>
       <c r="E36" s="28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F36" s="27" t="s">
         <v>50</v>
       </c>
       <c r="G36" s="27"/>
     </row>
-    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A37" s="24">
         <v>43434</v>
       </c>
@@ -1934,12 +1947,73 @@
         <v>0.1659722222222223</v>
       </c>
       <c r="E37" s="28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F37" s="27" t="s">
         <v>49</v>
       </c>
       <c r="G37" s="27"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="32">
+        <v>43437</v>
+      </c>
+      <c r="B38" s="31">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="C38" s="31">
+        <v>0.81944444444444453</v>
+      </c>
+      <c r="D38" s="26">
+        <f t="shared" si="1"/>
+        <v>0.10416666666666674</v>
+      </c>
+      <c r="E38" s="28">
+        <v>5</v>
+      </c>
+      <c r="F38" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="G38" s="30"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="32">
+        <v>43439</v>
+      </c>
+      <c r="B39" s="31">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="C39" s="31">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D39" s="26">
+        <f t="shared" si="1"/>
+        <v>0.25694444444444442</v>
+      </c>
+      <c r="E39" s="28">
+        <v>5</v>
+      </c>
+      <c r="F39" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="G39" s="30"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="32">
+        <v>43444</v>
+      </c>
+      <c r="B40" s="31">
+        <v>0.5625</v>
+      </c>
+      <c r="C40" s="31"/>
+      <c r="D40" s="26">
+        <f t="shared" si="1"/>
+        <v>-0.5625</v>
+      </c>
+      <c r="E40" s="28">
+        <v>5</v>
+      </c>
+      <c r="F40" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="4">
